--- a/public/template/导入模板.xlsx
+++ b/public/template/导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\眯\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\wenda\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{504386E5-21F5-4C94-9B33-7AA2C52251C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FA18EA-2E24-464C-BEBF-163BAB5B057D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1294945D-FF09-43AF-9DCA-46F33F000211}"/>
   </bookViews>
@@ -36,10 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,6 +45,10 @@
   </si>
   <si>
     <t>导入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4672CBA-C6B6-4E66-987F-F4BCFD303E1B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,18 +424,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>123456</v>
